--- a/testBase.xlsx
+++ b/testBase.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\Chat-bot-reservists\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26E5337-5EB3-47E4-9E5A-79285C2D90EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="4080" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Участники курса</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Блок: "Начало"</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Видео</t>
-  </si>
-  <si>
-    <t>Продолжительность (мин)</t>
-  </si>
-  <si>
-    <t>Отметка о просмотре</t>
-  </si>
-  <si>
-    <t>Блок 1</t>
-  </si>
-  <si>
-    <t>2023-03-03 15:27</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
-  </si>
-  <si>
-    <t>Ееее</t>
-  </si>
-  <si>
-    <t>Пройдено</t>
-  </si>
-  <si>
-    <t>Рппрпм</t>
-  </si>
-  <si>
-    <t>Нптрп</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,115 +420,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Участники курса</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Блок: "Начало"</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Видео</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Продолжительность (мин)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Отметка о просмотре</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Блок 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>920154651</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Пгпгм</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Оанпгп</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B4" t="n">
         <v>1992508347</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>920154651</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Апрпа</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Чпчеч</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testBase.xlsx
+++ b/testBase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,46 @@
           <t>Отметка о просмотре</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Тест 1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Ответ 1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Тест 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ответ 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Тест 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Ответ 3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Итого баллов?</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Отметка о прохождении теста</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -489,7 +529,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-03 15:27</t>
+          <t>2023-03-09 16:12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -501,6 +541,38 @@
         <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Вопрос 1?
+1) текст 
+2) Текст...</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Вопрос 2?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Вопрос 3?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -519,11 +591,67 @@
           <t>Оанпгп</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Блок 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Пройдено</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Вопрос 1?
+1) текст 
+2) Текст...</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Вопрос 2?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Вопрос 3?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Пройдено</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,14 +667,70 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Чпчеч</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>Преподаватель</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Блок 1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Пройдено</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Вопрос 1?
+1) текст 
+2) Текст...</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Вопрос 2?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Вопрос 3?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Пройдено</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testBase.xlsx
+++ b/testBase.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,8 +608,10 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" s="2" t="n">
-        <v>45001.61319444444</v>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:27</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -638,11 +636,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>920154651</v>
+        <v>123</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Екатерина Моисеева</t>
+          <t>ertyu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -821,6 +819,184 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dsfghjkl</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>gfhjhnkm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Блок 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2023-03-09 16:12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Вопрос 1?
+1) текст 
+2) Текст...</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Вопрос 2?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Вопрос 3?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
+2. Изучить дистанционный курс "Система Курс. Управление эффективностью  деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
+3. Используя колесо определить основные проблемные направления работы, сформулировать цели и КПЭ. Составить КЦ, направить на 50reserv@cbr.ru(с заполнением чек-листа)
+</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>communic[2023-03-20 09:31] hjm,.</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>920154651</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>fghjkl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Блок 1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2023-03-09 16:12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Вопрос 1?
+1) текст 
+2) Текст...</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Вопрос 2?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Вопрос 3?  
+1) текст 
+2) Текст…</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:27</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
+2. Изучить дистанционный курс "Система Курс. Управление эффективностью  деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
+3. Используя колесо определить основные проблемные направления работы, сформулировать цели и КПЭ. Составить КЦ, направить на 50reserv@cbr.ru(с заполнением чек-листа)
+</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testBase.xlsx
+++ b/testBase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Рефлексия общее</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -630,17 +635,18 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>123</v>
+        <v>1992508347</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ertyu</t>
+          <t>Юрий Ивойлов</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -702,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -713,37 +719,30 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Перезагружено</t>
+          <t>Готово</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>course[2023-03-17 12:46] ыывчавг</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>general[2023-03-17 12:46] огевсгевgeneral[2023-03-17 12:47] неывк</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1992508347</v>
+        <v>920154651</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Юрий Ивойлов</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Оанпгп</t>
+          <t>Преподаватель</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -753,7 +752,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-03-03 15:27</t>
+          <t>2023-03-09 16:12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -764,11 +763,7 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Пройдено</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>Вопрос 1?
@@ -799,100 +794,14 @@
       <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Пройдено</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>212</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dsfghjkl</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>gfhjhnkm</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Блок 1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023-03-09 16:12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Вопрос 1?
-1) текст 
-2) Текст...</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Вопрос 2?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Вопрос 3?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>2023-03-03 15:27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
 2. Изучить дистанционный курс "Система Курс. Управление эффективностью  деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
@@ -900,102 +809,16 @@
 </t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>communic[2023-03-20 09:31] hjm,.</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>920154651</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kate</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>fghjkl</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Блок 1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023-03-09 16:12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Вопрос 1?
-1) текст 
-2) Текст...</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Вопрос 2?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Вопрос 3?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>2023-03-03 15:27</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
-2. Изучить дистанционный курс "Система Курс. Управление эффективностью  деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
-3. Используя колесо определить основные проблемные направления работы, сформулировать цели и КПЭ. Составить КЦ, направить на 50reserv@cbr.ru(с заполнением чек-листа)
-</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>general[2023-03-20 10:58] sdfghjkl</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testBase.xlsx
+++ b/testBase.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-09 16:12</t>
+          <t>2023-03-20 14:58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -615,7 +615,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2023-03-03 15:27</t>
+          <t>2023-03-20 14:50</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -719,7 +719,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Готово</t>
+          <t>Перезагружено</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -809,7 +809,11 @@
 </t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Перезагружено</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>

--- a/testBase.xlsx
+++ b/testBase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>Комментарий</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Группы рассылки</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -569,7 +574,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-20 14:58</t>
+          <t>2023-03-28 17:25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -615,7 +620,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2023-03-20 14:50</t>
+          <t>2023-03-28 8:36</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -636,6 +641,7 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -651,7 +657,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Оанпгп</t>
+          <t>aaaaaaa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -727,6 +733,7 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -737,7 +744,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>sdfghjkl,.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -752,7 +759,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-03-09 16:12</t>
+          <t>2023-03-28 8:34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -798,7 +805,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2023-03-03 15:27</t>
+          <t>2023-03-28 8:36</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -809,20 +816,17 @@
 </t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Перезагружено</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>course[2023-03-28 08:41] sfdghjkl</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>general[2023-03-20 10:58] sdfghjkl</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testBase.xlsx
+++ b/testBase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Участники курса</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Участники курса</t>
+          <t>Группа</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Группа</t>
+          <t>Блок: Начало</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Блок: "Начало"</t>
+          <t>Даты начала и конца блока</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -557,6 +557,11 @@
       <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Группы рассылки</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>user_ID</t>
         </is>
       </c>
     </row>
@@ -564,17 +569,25 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Блок 1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Блок 1</t>
+          <t>start</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-28 17:25</t>
+          <t>2023-07-03 13:27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -582,53 +595,60 @@
           <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>Вопрос 1?
-1) текст 
-2) Текст...</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
+ 1) текст 
+ 2) Текст...</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Вопрос 2?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
+          <t>Вопрос 2? 
+ 1) текст 
+ 2) Текст…</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Вопрос 3?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
+          <t>Вопрос 3? 
+ 1) текст 
+ 2) Текст…</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2023-03-28 8:36</t>
+          <t>2023-07-03 13:58</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
-2. Изучить дистанционный курс "Система Курс. Управление эффективностью  деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
-3. Используя колесо определить основные проблемные направления работы, сформулировать цели и КПЭ. Составить КЦ, направить на 50reserv@cbr.ru(с заполнением чек-листа)
-</t>
+          <t>1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
+ 2. Изучить дистанционный курс "Система Курс. Управление эффективностью деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
+ 3. Используя колесо определить основные проблемные направления работы, сформулировать цели и КПЭ. Составить КЦ, направить на 50reserv@cbr.ru(с заполнением чек-листа)</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -642,32 +662,31 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1992508347</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ивойлов Юрий Михайлович</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Юрий Ивойлов</t>
+          <t>А1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>aaaaaaa</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Блок 1</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-03-03 15:27</t>
+          <t>2023-07-03 13:27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -675,158 +694,117 @@
           <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Пройдено</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>Вопрос 1?
-1) текст 
-2) Текст...</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
+ 1) текст 
+ 2) Текст...</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Вопрос 2?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
+          <t>Вопрос 2? 
+ 1) текст 
+ 2) Текст…</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Вопрос 3?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Пройдено</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Перезагружено</t>
-        </is>
-      </c>
+          <t>Вопрос 3? 
+ 1) текст 
+ 2) Текст…</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2023-07-03 13:58</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
+ 2. Изучить дистанционный курс "Система Курс. Управление эффективностью деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
+ 3. Используя колесо определить основные проблемные направления работы, сформулировать цели и КПЭ. Составить КЦ, направить на 50reserv@cbr.ru(с заполнением чек-листа)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1992508347</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>920154651</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Моисеева Екатерина Дмитриевна</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sdfghjkl,.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Преподаватель</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Блок 1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-03-28 8:34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=uv4-MojCCes</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Вопрос 1?
-1) текст 
-2) Текст...</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Вопрос 2?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Вопрос 3?  
-1) текст 
-2) Текст…</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2023-03-28 8:36</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Изучить модель компетенций и новые лидерские практики (Страница УРП), сдать тест
-2. Изучить дистанционный курс "Система Курс. Управление эффективностью  деятельности в Банке России", пройти тестирование (предусмотрено в курсе).
-3. Используя колесо определить основные проблемные направления работы, сформулировать цели и КПЭ. Составить КЦ, направить на 50reserv@cbr.ru(с заполнением чек-листа)
-</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>course[2023-03-28 08:41] sfdghjkl</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>920154651</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
